--- a/NEW HR/RODRIGUEZ, JOSEHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEHINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -626,17 +626,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -646,6 +643,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,8 +1537,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,14 +1568,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1586,16 +1586,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1608,14 +1608,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1641,18 +1641,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1698,8 +1698,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>301.25</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1708,8 +1708,8 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>359.5</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3101,15 +3101,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="41">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
@@ -3566,17 +3570,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3612,9 +3616,9 @@
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3810" topLeftCell="A21" activePane="bottomLeft"/>
+      <pane ySplit="3810" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="C39" sqref="C39"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,14 +3648,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3662,16 +3666,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3684,14 +3688,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3717,18 +3721,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3785,7 +3789,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4491,7 +4495,9 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="47" t="s">
+        <v>68</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="40"/>
@@ -4507,8 +4513,12 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="40"/>
       <c r="E43" s="9"/>
@@ -4517,14 +4527,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="40"/>
+      <c r="H43" s="40">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="48">
+        <v>44991</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C44" s="13"/>
       <c r="D44" s="40"/>
       <c r="E44" s="9"/>
@@ -4533,10 +4549,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H44" s="40"/>
+      <c r="H44" s="40">
+        <v>1</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="48">
+        <v>45005</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
